--- a/packages/front/assets/import-issues-example.xlsx
+++ b/packages/front/assets/import-issues-example.xlsx
@@ -11,15 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Номер заявки</t>
-  </si>
-  <si>
-    <t>Заказчик</t>
-  </si>
-  <si>
-    <t>Юр.лицо</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+  <si>
+    <t>№ заявки</t>
   </si>
   <si>
     <t>Объект</t>
@@ -31,28 +25,82 @@
     <t>Дата регистрации</t>
   </si>
   <si>
-    <t>Начало работ</t>
+    <t>Срок</t>
   </si>
   <si>
     <t>Дата завершения</t>
   </si>
   <si>
-    <t>Смета согласована</t>
-  </si>
-  <si>
-    <t>Смета сумма</t>
-  </si>
-  <si>
-    <t>Расходы</t>
-  </si>
-  <si>
-    <t>Статус</t>
+    <t>Менеджер</t>
+  </si>
+  <si>
+    <t>Отв. Инженер</t>
+  </si>
+  <si>
+    <t>Техник</t>
+  </si>
+  <si>
+    <t>Контакты</t>
+  </si>
+  <si>
+    <t>5oN8HuNDg4-w-L-</t>
+  </si>
+  <si>
+    <t>Заменить светильник армстронг 1шт</t>
+  </si>
+  <si>
+    <t>XYVlsQ</t>
+  </si>
+  <si>
+    <t>YZhTIsvjiJ-tKNK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срочный ремонт рольствани. Каждый день закрывается с техником. </t>
+  </si>
+  <si>
+    <t>tTwg7FFFlfC05Pk</t>
+  </si>
+  <si>
+    <t>необходимо купить конвектора 1.5 кв.т(согласовано)</t>
+  </si>
+  <si>
+    <t>QifUcxr8Wr34O2V</t>
+  </si>
+  <si>
+    <t>необходимо провести осмотр лайтбоксов согласно чек листу</t>
+  </si>
+  <si>
+    <t>6Vw0VoN0K9CAUbb</t>
+  </si>
+  <si>
+    <t>необходимо заменить сиденье барного стула 1 шт</t>
+  </si>
+  <si>
+    <t>tcDI3j0TRmIVO-u</t>
+  </si>
+  <si>
+    <t>Доброго дня. Необходимо заменить замок на входной группе и подсобке. Необходимо 5 комплектов</t>
+  </si>
+  <si>
+    <t>OtCeN0C6hbJXhWp</t>
+  </si>
+  <si>
+    <t>Необходима покраска стен в местах загрязнений не более 20 кв.м</t>
+  </si>
+  <si>
+    <t>u71qlizjAHpFyT3</t>
+  </si>
+  <si>
+    <t>необхдима замена ножки барного стула</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11.0"/>
@@ -73,14 +121,14 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="-apple-system"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -117,26 +165,37 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -353,17 +412,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.57"/>
-    <col customWidth="1" min="2" max="2" width="10.86"/>
-    <col customWidth="1" min="3" max="3" width="27.29"/>
-    <col customWidth="1" min="4" max="4" width="19.43"/>
-    <col customWidth="1" min="5" max="5" width="23.14"/>
-    <col customWidth="1" min="6" max="11" width="22.29"/>
-    <col customWidth="1" min="12" max="12" width="19.86"/>
-    <col customWidth="1" min="13" max="13" width="14.0"/>
-    <col customWidth="1" min="14" max="14" width="14.43"/>
-    <col customWidth="1" min="15" max="15" width="11.14"/>
-    <col customWidth="1" min="16" max="32" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="10.71"/>
+    <col customWidth="1" min="2" max="2" width="19.43"/>
+    <col customWidth="1" min="3" max="3" width="23.14"/>
+    <col customWidth="1" min="4" max="6" width="22.29"/>
+    <col customWidth="1" min="7" max="7" width="14.0"/>
+    <col customWidth="1" min="8" max="8" width="15.57"/>
+    <col customWidth="1" min="9" max="10" width="11.14"/>
+    <col customWidth="1" min="11" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -376,92 +432,211 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="5">
+        <v>123123.0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8">
+        <v>45241.0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>45246.0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>45247.0</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="5">
+        <v>123124.0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8">
+        <v>45243.0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>45247.0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>45248.0</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="5">
+        <v>123125.0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8">
+        <v>45240.0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>45248.0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>45249.0</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="5">
+        <v>123126.0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8">
+        <v>45244.0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>45249.0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>45250.0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="5">
+        <v>123127.0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8">
+        <v>45241.0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>45250.0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>45251.0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="5">
+        <v>123128.0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8">
+        <v>45251.0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>45251.0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>45252.0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="5">
+        <v>123129.0</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8">
+        <v>45248.0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>45252.0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>45253.0</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="5">
+        <v>123130.0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="8">
+        <v>45242.0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>45253.0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>45254.0</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1"/>

--- a/packages/front/assets/import-issues-example.xlsx
+++ b/packages/front/assets/import-issues-example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>№ заявки</t>
   </si>
@@ -43,52 +43,28 @@
     <t>Контакты</t>
   </si>
   <si>
-    <t>5oN8HuNDg4-w-L-</t>
-  </si>
-  <si>
     <t>Заменить светильник армстронг 1шт</t>
   </si>
   <si>
     <t>XYVlsQ</t>
   </si>
   <si>
-    <t>YZhTIsvjiJ-tKNK</t>
-  </si>
-  <si>
     <t xml:space="preserve">Срочный ремонт рольствани. Каждый день закрывается с техником. </t>
   </si>
   <si>
-    <t>tTwg7FFFlfC05Pk</t>
-  </si>
-  <si>
     <t>необходимо купить конвектора 1.5 кв.т(согласовано)</t>
   </si>
   <si>
-    <t>QifUcxr8Wr34O2V</t>
-  </si>
-  <si>
     <t>необходимо провести осмотр лайтбоксов согласно чек листу</t>
   </si>
   <si>
-    <t>6Vw0VoN0K9CAUbb</t>
-  </si>
-  <si>
     <t>необходимо заменить сиденье барного стула 1 шт</t>
   </si>
   <si>
-    <t>tcDI3j0TRmIVO-u</t>
-  </si>
-  <si>
     <t>Доброго дня. Необходимо заменить замок на входной группе и подсобке. Необходимо 5 комплектов</t>
   </si>
   <si>
-    <t>OtCeN0C6hbJXhWp</t>
-  </si>
-  <si>
     <t>Необходима покраска стен в местах загрязнений не более 20 кв.м</t>
-  </si>
-  <si>
-    <t>u71qlizjAHpFyT3</t>
   </si>
   <si>
     <t>необхдима замена ножки барного стула</t>
@@ -458,11 +434,11 @@
       <c r="A2" s="5">
         <v>123123.0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="6">
+        <v>798.0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="8">
         <v>45241.0</v>
@@ -474,18 +450,18 @@
         <v>45247.0</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="5">
         <v>123124.0</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
+      <c r="B3" s="6">
+        <v>748.0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="8">
         <v>45243.0</v>
@@ -497,18 +473,18 @@
         <v>45248.0</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="5">
         <v>123125.0</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
+      <c r="B4" s="6">
+        <v>123.0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="8">
         <v>45240.0</v>
@@ -520,18 +496,18 @@
         <v>45249.0</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="5">
         <v>123126.0</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
+      <c r="B5" s="6">
+        <v>1.0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="8">
         <v>45244.0</v>
@@ -543,18 +519,18 @@
         <v>45250.0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="5">
         <v>123127.0</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
+      <c r="B6" s="6">
+        <v>600.0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" s="8">
         <v>45241.0</v>
@@ -566,18 +542,18 @@
         <v>45251.0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="5">
         <v>123128.0</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>21</v>
+      <c r="B7" s="6">
+        <v>543.0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" s="8">
         <v>45251.0</v>
@@ -589,18 +565,18 @@
         <v>45252.0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="5">
         <v>123129.0</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>23</v>
+      <c r="B8" s="6">
+        <v>700.0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8">
         <v>45248.0</v>
@@ -612,18 +588,18 @@
         <v>45253.0</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="5">
         <v>123130.0</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>25</v>
+      <c r="B9" s="6">
+        <v>445.0</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8">
         <v>45242.0</v>
@@ -635,7 +611,7 @@
         <v>45254.0</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>

--- a/packages/front/assets/import-issues-example.xlsx
+++ b/packages/front/assets/import-issues-example.xlsx
@@ -389,12 +389,15 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="19.43"/>
+    <col customWidth="1" min="2" max="2" width="8.43"/>
     <col customWidth="1" min="3" max="3" width="23.14"/>
-    <col customWidth="1" min="4" max="6" width="22.29"/>
-    <col customWidth="1" min="7" max="7" width="14.0"/>
-    <col customWidth="1" min="8" max="8" width="15.57"/>
-    <col customWidth="1" min="9" max="10" width="11.14"/>
+    <col customWidth="1" min="4" max="4" width="17.29"/>
+    <col customWidth="1" min="5" max="5" width="14.14"/>
+    <col customWidth="1" min="6" max="6" width="16.14"/>
+    <col customWidth="1" min="7" max="7" width="11.29"/>
+    <col customWidth="1" min="8" max="8" width="12.86"/>
+    <col customWidth="1" min="9" max="9" width="12.0"/>
+    <col customWidth="1" min="10" max="10" width="11.14"/>
     <col customWidth="1" min="11" max="26" width="8.71"/>
   </cols>
   <sheetData>
@@ -435,7 +438,7 @@
         <v>123123.0</v>
       </c>
       <c r="B2" s="6">
-        <v>798.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
@@ -458,7 +461,7 @@
         <v>123124.0</v>
       </c>
       <c r="B3" s="6">
-        <v>748.0</v>
+        <v>2.0</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>12</v>
@@ -481,7 +484,7 @@
         <v>123125.0</v>
       </c>
       <c r="B4" s="6">
-        <v>123.0</v>
+        <v>3.0</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
@@ -504,7 +507,7 @@
         <v>123126.0</v>
       </c>
       <c r="B5" s="6">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>14</v>
@@ -527,7 +530,7 @@
         <v>123127.0</v>
       </c>
       <c r="B6" s="6">
-        <v>600.0</v>
+        <v>5.0</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>15</v>
@@ -550,7 +553,7 @@
         <v>123128.0</v>
       </c>
       <c r="B7" s="6">
-        <v>543.0</v>
+        <v>6.0</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>16</v>
@@ -573,7 +576,7 @@
         <v>123129.0</v>
       </c>
       <c r="B8" s="6">
-        <v>700.0</v>
+        <v>7.0</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>17</v>
@@ -596,7 +599,7 @@
         <v>123130.0</v>
       </c>
       <c r="B9" s="6">
-        <v>445.0</v>
+        <v>4.0</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>18</v>
